--- a/크롤링/result.xlsx
+++ b/크롤링/result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jooney Han\Desktop\해커톤\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jooney Han\Desktop\해커톤\크롤링\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A4490A-8294-4136-893C-2CC82A0C389A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3C4F41-8F0C-41D9-A517-B31F8EDF0F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="269">
+  <si>
+    <t>연번</t>
+  </si>
+  <si>
+    <t>산재유형</t>
+  </si>
+  <si>
+    <t>사건번호</t>
+  </si>
+  <si>
+    <t>사건명</t>
+  </si>
+  <si>
+    <t>원고</t>
+  </si>
+  <si>
+    <t>피고</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 변론종결일</t>
+  </si>
+  <si>
+    <t>판결선고일</t>
+  </si>
   <si>
     <t>작업시간중사고</t>
   </si>
@@ -29,18 +53,6 @@
   </si>
   <si>
     <t>추가상병불승인처분취소</t>
-  </si>
-  <si>
-    <t>원고</t>
-  </si>
-  <si>
-    <t>피고</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 변론종결일</t>
-  </si>
-  <si>
-    <t>판결선고일</t>
   </si>
   <si>
     <t>2019누496_서울고등법원</t>
@@ -1210,17 +1222,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
@@ -1228,250 +1240,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
         <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -1479,307 +1491,307 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
         <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
         <v>58</v>
@@ -1787,1077 +1799,1077 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D50" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D55" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D61" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D63" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D64" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D65" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D68" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D71" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" t="s">
         <v>102</v>
-      </c>
-      <c r="D72" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D79" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D83" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D86" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D87" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D88" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D89" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D91" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D95" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D96" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D97" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D98" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D99" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D100" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D101" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D102" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D104" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D106" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D108" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D109" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D110" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D111" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D113" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D114" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D115" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D116" t="s">
         <v>15</v>
@@ -2865,41 +2877,41 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D117" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D118" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D119" t="s">
         <v>15</v>
@@ -2907,27 +2919,27 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D120" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D121" t="s">
         <v>19</v>
@@ -2935,293 +2947,293 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D122" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D123" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D124" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D125" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D126" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D127" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D128" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D129" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D130" t="s">
-        <v>176</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D131" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D132" t="s">
-        <v>176</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D133" t="s">
-        <v>19</v>
+        <v>180</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D134" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D135" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D136" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D137" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D138" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D139" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D140" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D141" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D142" t="s">
         <v>190</v>
@@ -3229,167 +3241,167 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D143" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D144" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D145" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D146" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D147" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D148" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D149" t="s">
-        <v>96</v>
+        <v>203</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D150" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D151" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D153" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D154" t="s">
         <v>15</v>
@@ -3397,646 +3409,660 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D155" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D156" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D157" t="s">
-        <v>209</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D158" t="s">
-        <v>2</v>
+        <v>213</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D159" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D160" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D161" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D162" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D163" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D164" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D165" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D166" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D167" t="s">
-        <v>221</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D168" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D169" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D170" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D171" t="s">
-        <v>226</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D172" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D173" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D174" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D175" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D176" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D177" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D178" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D179" t="s">
-        <v>236</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D180" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D181" t="s">
-        <v>2</v>
+        <v>242</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D182" t="s">
-        <v>236</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D183" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D184" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D185" t="s">
-        <v>244</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D186" t="s">
-        <v>15</v>
+        <v>248</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D187" t="s">
-        <v>247</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D188" t="s">
-        <v>19</v>
+        <v>251</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D189" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D190" t="s">
-        <v>251</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D191" t="s">
-        <v>19</v>
+        <v>255</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D192" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D193" t="s">
-        <v>11</v>
+        <v>258</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D194" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D195" t="s">
-        <v>254</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
+        <v>261</v>
+      </c>
+      <c r="D196" t="s">
         <v>258</v>
-      </c>
-      <c r="D196" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D197" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D198" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D199" t="s">
-        <v>11</v>
+        <v>265</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" t="s">
+        <v>267</v>
+      </c>
+      <c r="D200" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A201">
         <v>200</v>
       </c>
-      <c r="B200" t="s">
-        <v>0</v>
-      </c>
-      <c r="C200" t="s">
-        <v>264</v>
-      </c>
-      <c r="D200" t="s">
-        <v>11</v>
+      <c r="B201" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" t="s">
+        <v>268</v>
+      </c>
+      <c r="D201" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/크롤링/result.xlsx
+++ b/크롤링/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jooney Han\Desktop\해커톤\크롤링\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinho/Desktop/Hackathon2023/크롤링/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3C4F41-8F0C-41D9-A517-B31F8EDF0F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09DBA10-3D24-8649-ABF1-FD6A37018760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -837,13 +837,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -852,7 +852,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -885,7 +885,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1228,18 +1228,18 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
